--- a/dados/previsoes/previsao1410-cuiabavscruzeiro_Modelo3.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro_Modelo3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B22402-26AC-428D-B514-AF5028D97EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824D9BE-DFCF-4670-83C5-75288AB4FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11235" yWindow="1785" windowWidth="11340" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10350" yWindow="1785" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,14 +416,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">

--- a/dados/previsoes/previsao1410-cuiabavscruzeiro_Modelo3.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro_Modelo3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824D9BE-DFCF-4670-83C5-75288AB4FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF23B515-A50F-4CAD-B558-26121F6964DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10350" yWindow="1785" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1665" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
